--- a/Objects/Extract_2Loan.xlsx
+++ b/Objects/Extract_2Loan.xlsx
@@ -1,56 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://firstrandgroup-my.sharepoint.com/personal/wrq_rmb_co_za/Documents/Analytix/Research/TruEnd-Procedure/Objects/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_9CE51FD08F79A8536E3CA493EA7BD272AA47FCCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D39C7F2-3866-43C4-B6DF-239DD7F72EDB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26010" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>LoanID</t>
-  </si>
-  <si>
-    <t>Counter</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>WOff_Ind</t>
-  </si>
-  <si>
-    <t>Principal_Ratio</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,30 +55,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,27 +145,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,24 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,49 +354,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LoanID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Counter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Principal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>WOff_Ind</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Principal_Ratio</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
         <v>3000000109309</v>
       </c>
       <c r="B2">
@@ -495,11 +421,11 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.90922876509214134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+        <v>0.9092287650921413</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
         <v>3000000109309</v>
       </c>
       <c r="B3">
@@ -518,11 +444,11 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.89700233001482732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+        <v>0.8970023300148273</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
         <v>3000000109309</v>
       </c>
       <c r="B4">
@@ -541,11 +467,11 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.92156640542257995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+        <v>0.9215664054225799</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
         <v>3000000109309</v>
       </c>
       <c r="B5">
@@ -564,11 +490,11 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.91006227494174963</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+        <v>0.9100622749417496</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
         <v>3000000109309</v>
       </c>
       <c r="B6">
@@ -587,11 +513,11 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.90623808515145099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+        <v>0.906238085151451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>3000000109309</v>
       </c>
       <c r="B7">
@@ -610,11 +536,11 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.89483499258631649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+        <v>0.8948349925863165</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>3000000109309</v>
       </c>
       <c r="B8">
@@ -627,17 +553,17 @@
         <v>47210</v>
       </c>
       <c r="E8">
-        <v>41720.959999999999</v>
+        <v>41720.96</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.88373141283626344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+        <v>0.8837314128362634</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
         <v>3000000109309</v>
       </c>
       <c r="B9">
@@ -656,11 +582,11 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.87266172421097221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+        <v>0.8726617242109722</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
         <v>3000000109309</v>
       </c>
       <c r="B10">
@@ -673,17 +599,17 @@
         <v>47210</v>
       </c>
       <c r="E10">
-        <v>40665.279999999999</v>
+        <v>40665.28</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.86137004871849177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+        <v>0.8613700487184918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
         <v>3000000109309</v>
       </c>
       <c r="B11">
@@ -696,17 +622,17 @@
         <v>47210</v>
       </c>
       <c r="E11">
-        <v>40150.639999999999</v>
+        <v>40150.64</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.85046896843889008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+        <v>0.8504689684388901</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
         <v>3000000109309</v>
       </c>
       <c r="B12">
@@ -725,11 +651,11 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.83928362635034959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+        <v>0.8392836263503496</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
         <v>3000000109309</v>
       </c>
       <c r="B13">
@@ -748,11 +674,11 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.82847744122008049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+        <v>0.8284774412200805</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
         <v>3000000109309</v>
       </c>
       <c r="B14">
@@ -765,17 +691,17 @@
         <v>47210</v>
       </c>
       <c r="E14">
-        <v>38603.440000000002</v>
+        <v>38603.44</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.81769625079432329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+        <v>0.8176962507943233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
         <v>3000000109309</v>
       </c>
       <c r="B15">
@@ -788,17 +714,17 @@
         <v>47210</v>
       </c>
       <c r="E15">
-        <v>38058.230000000003</v>
+        <v>38058.23</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.80614763821224322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+        <v>0.8061476382122432</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
         <v>3000000109309</v>
       </c>
       <c r="B16">
@@ -817,11 +743,11 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.85637343783096798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+        <v>0.856373437830968</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
         <v>3000000109309</v>
       </c>
       <c r="B17">
@@ -840,11 +766,11 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.86751895784791355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+        <v>0.8675189578479136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
         <v>3000000109309</v>
       </c>
       <c r="B18">
@@ -863,11 +789,11 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.84657699639906803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+        <v>0.846576996399068</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
         <v>3000000109309</v>
       </c>
       <c r="B19">
@@ -886,11 +812,11 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.82520652404151662</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+        <v>0.8252065240415166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
         <v>3000000109309</v>
       </c>
       <c r="B20">
@@ -903,17 +829,17 @@
         <v>47210</v>
       </c>
       <c r="E20">
-        <v>38831.339999999997</v>
+        <v>38831.34</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.82252361787756822</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+        <v>0.8225236178775682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
         <v>3000000109309</v>
       </c>
       <c r="B21">
@@ -926,17 +852,17 @@
         <v>47210</v>
       </c>
       <c r="E21">
-        <v>37848.030000000013</v>
+        <v>37848.03000000001</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.80169519169667458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+        <v>0.8016951916966746</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>3000000109309</v>
       </c>
       <c r="B22">
@@ -955,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.78025905528489725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+        <v>0.7802590552848973</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
         <v>3000000109309</v>
       </c>
       <c r="B23">
@@ -978,11 +904,11 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.76953908070324084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+        <v>0.7695390807032408</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
         <v>3000000109309</v>
       </c>
       <c r="B24">
@@ -1001,11 +927,11 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.74768438890065669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+        <v>0.7476843889006567</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
         <v>3000000109309</v>
       </c>
       <c r="B25">
@@ -1018,17 +944,17 @@
         <v>47210</v>
       </c>
       <c r="E25">
-        <v>34560.620000000003</v>
+        <v>34560.62</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.73206142766363069</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+        <v>0.7320614276636307</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
         <v>3000000109309</v>
       </c>
       <c r="B26">
@@ -1047,11 +973,11 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.72039885617453925</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+        <v>0.7203988561745392</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>3000000109309</v>
       </c>
       <c r="B27">
@@ -1064,17 +990,17 @@
         <v>47210</v>
       </c>
       <c r="E27">
-        <v>33392.400000000001</v>
+        <v>33392.4</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.70731624655793268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+        <v>0.7073162465579327</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
         <v>3000000109309</v>
       </c>
       <c r="B28">
@@ -1087,17 +1013,17 @@
         <v>47210</v>
       </c>
       <c r="E28">
-        <v>35155.919999999998</v>
+        <v>35155.92</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.74467104427028163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+        <v>0.7446710442702816</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
         <v>3000000109309</v>
       </c>
       <c r="B29">
@@ -1110,17 +1036,17 @@
         <v>47210</v>
       </c>
       <c r="E29">
-        <v>34577.089999999997</v>
+        <v>34577.09</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.73241029442914629</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+        <v>0.7324102944291463</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
         <v>3000000109309</v>
       </c>
       <c r="B30">
@@ -1133,17 +1059,17 @@
         <v>47210</v>
       </c>
       <c r="E30">
-        <v>33739.01</v>
+        <v>33739.00999999999</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.71465812327896616</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+        <v>0.7146581232789662</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>3000000109309</v>
       </c>
       <c r="B31">
@@ -1162,11 +1088,11 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.68950328320271126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+        <v>0.6895032832027113</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
         <v>3000000109309</v>
       </c>
       <c r="B32">
@@ -1185,11 +1111,11 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.66690976488032194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+        <v>0.6669097648803219</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
         <v>3000000109309</v>
       </c>
       <c r="B33">
@@ -1208,11 +1134,11 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.64393772505825031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+        <v>0.6439377250582503</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>3000000109309</v>
       </c>
       <c r="B34">
@@ -1231,11 +1157,11 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.62047341664901501</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+        <v>0.620473416649015</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
         <v>3000000109309</v>
       </c>
       <c r="B35">
@@ -1257,8 +1183,8 @@
         <v>0.5969781825884346</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="36">
+      <c r="A36">
         <v>3000000109309</v>
       </c>
       <c r="B36">
@@ -1277,11 +1203,11 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.57309171785638635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+        <v>0.5730917178563864</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
         <v>3000000109309</v>
       </c>
       <c r="B37">
@@ -1300,11 +1226,11 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.54914064816776098</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+        <v>0.549140648167761</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
         <v>3000000109309</v>
       </c>
       <c r="B38">
@@ -1323,11 +1249,11 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.52500847278119034</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+        <v>0.5250084727811903</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
         <v>3000000109309</v>
       </c>
       <c r="B39">
@@ -1346,11 +1272,11 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.50023109510696884</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+        <v>0.5002310951069688</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>3000000109309</v>
       </c>
       <c r="B40">
@@ -1369,11 +1295,11 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.53006481677610673</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+        <v>0.5300648167761067</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
         <v>3000000109309</v>
       </c>
       <c r="B41">
@@ -1392,11 +1318,11 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.50540605803855121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+        <v>0.5054060580385512</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>3000000109309</v>
       </c>
       <c r="B42">
@@ -1415,11 +1341,11 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.48066871425545432</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+        <v>0.4806687142554543</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
         <v>3000000109309</v>
       </c>
       <c r="B43">
@@ -1438,11 +1364,11 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0.45555666172421089</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+        <v>0.4555566617242109</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>3000000109309</v>
       </c>
       <c r="B44">
@@ -1461,11 +1387,11 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.43040372802372379</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+        <v>0.4304037280237238</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
         <v>3000000109309</v>
       </c>
       <c r="B45">
@@ -1484,11 +1410,11 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.40502075831391648</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+        <v>0.4050207583139165</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>3000000109309</v>
       </c>
       <c r="B46">
@@ -1501,17 +1427,17 @@
         <v>47210</v>
       </c>
       <c r="E46">
-        <v>17903.169999999998</v>
+        <v>17903.17</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.37922410506248683</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+        <v>0.3792241050624868</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
         <v>3000000109309</v>
       </c>
       <c r="B47">
@@ -1524,17 +1450,17 @@
         <v>47210</v>
       </c>
       <c r="E47">
-        <v>16677.810000000001</v>
+        <v>16677.81</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.3532685871637366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+        <v>0.3532685871637365</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
         <v>3000000109309</v>
       </c>
       <c r="B48">
@@ -1553,11 +1479,11 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0.32696483795805981</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+        <v>0.3269648379580598</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>3000000109309</v>
       </c>
       <c r="B49">
@@ -1576,11 +1502,11 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0.30041940266892608</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+        <v>0.3004194026689261</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
         <v>3000000109309</v>
       </c>
       <c r="B50">
@@ -1599,11 +1525,11 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.27369963990679941</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+        <v>0.2736996399067994</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
         <v>3000000109309</v>
       </c>
       <c r="B51">
@@ -1622,11 +1548,11 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.24660093200593089</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+        <v>0.2466009320059309</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
         <v>3000000109309</v>
       </c>
       <c r="B52">
@@ -1645,11 +1571,11 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.27765833509849608</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+        <v>0.2776583350984961</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
         <v>3000000109309</v>
       </c>
       <c r="B53">
@@ -1668,11 +1594,11 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0.25071001906375773</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+        <v>0.2507100190637577</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
         <v>3000000109309</v>
       </c>
       <c r="B54">
@@ -1691,11 +1617,11 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.22360326202075831</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+        <v>0.2236032620207583</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
         <v>3000000109309</v>
       </c>
       <c r="B55">
@@ -1708,17 +1634,17 @@
         <v>47210</v>
       </c>
       <c r="E55">
-        <v>9265.2099999999991</v>
+        <v>9265.209999999999</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.1962552425333616</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+        <v>0.1962552425333615</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
         <v>3000000109309</v>
       </c>
       <c r="B56">
@@ -1740,8 +1666,8 @@
         <v>0.1687464520228765</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+    <row r="57">
+      <c r="A57">
         <v>3000000109309</v>
       </c>
       <c r="B57">
@@ -1763,8 +1689,8 @@
         <v>0.1410273247193391</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+    <row r="58">
+      <c r="A58">
         <v>3000000109309</v>
       </c>
       <c r="B58">
@@ -1777,17 +1703,17 @@
         <v>47210</v>
       </c>
       <c r="E58">
-        <v>5337.9699999999993</v>
+        <v>5337.969999999999</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.11306862952764241</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+        <v>0.1130686295276424</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
         <v>3000000109309</v>
       </c>
       <c r="B59">
@@ -1806,11 +1732,11 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>8.4916754924804064E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+        <v>0.08491675492480406</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
         <v>3000000109309</v>
       </c>
       <c r="B60">
@@ -1829,11 +1755,11 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>5.6542893454776533E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+        <v>0.05654289345477653</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
         <v>3000000109309</v>
       </c>
       <c r="B61">
@@ -1852,11 +1778,11 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>2.7923109510696889E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+        <v>0.02792310951069689</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
         <v>3000000109309</v>
       </c>
       <c r="B62">
@@ -1878,8 +1804,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+    <row r="63">
+      <c r="A63">
         <v>3000000109309</v>
       </c>
       <c r="B63">
@@ -1901,8 +1827,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+    <row r="64">
+      <c r="A64">
         <v>3000000109309</v>
       </c>
       <c r="B64">
@@ -1924,8 +1850,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+    <row r="65">
+      <c r="A65">
         <v>3000000109309</v>
       </c>
       <c r="B65">
@@ -1947,8 +1873,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+    <row r="66">
+      <c r="A66">
         <v>3000000109309</v>
       </c>
       <c r="B66">
@@ -1970,8 +1896,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+    <row r="67">
+      <c r="A67">
         <v>3000000109309</v>
       </c>
       <c r="B67">
@@ -1993,8 +1919,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+    <row r="68">
+      <c r="A68">
         <v>3000000109309</v>
       </c>
       <c r="B68">
@@ -2016,8 +1942,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+    <row r="69">
+      <c r="A69">
         <v>3000000109309</v>
       </c>
       <c r="B69">
@@ -2039,8 +1965,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+    <row r="70">
+      <c r="A70">
         <v>3000000109309</v>
       </c>
       <c r="B70">
@@ -2062,8 +1988,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+    <row r="71">
+      <c r="A71">
         <v>3000006071745</v>
       </c>
       <c r="B71">
@@ -2082,11 +2008,11 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.76043388888888896</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+        <v>0.760433888888889</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
         <v>3000006071745</v>
       </c>
       <c r="B72">
@@ -2099,7 +2025,7 @@
         <v>90000</v>
       </c>
       <c r="E72">
-        <v>67466.939999999988</v>
+        <v>67466.93999999999</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2108,8 +2034,8 @@
         <v>0.7496326666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+    <row r="73">
+      <c r="A73">
         <v>3000006071745</v>
       </c>
       <c r="B73">
@@ -2128,11 +2054,11 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.73857633333333328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+        <v>0.7385763333333333</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
         <v>3000006071745</v>
       </c>
       <c r="B74">
@@ -2151,11 +2077,11 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0.72713822222222213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+        <v>0.7271382222222221</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
         <v>3000006071745</v>
       </c>
       <c r="B75">
@@ -2174,11 +2100,11 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.71584055555555559</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+        <v>0.7158405555555556</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
         <v>3000006071745</v>
       </c>
       <c r="B76">
@@ -2200,8 +2126,8 @@
         <v>0.7119765555555555</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+    <row r="77">
+      <c r="A77">
         <v>3000006071745</v>
       </c>
       <c r="B77">
@@ -2223,8 +2149,8 @@
         <v>0.7008023333333333</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+    <row r="78">
+      <c r="A78">
         <v>3000006071745</v>
       </c>
       <c r="B78">
@@ -2243,11 +2169,11 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0.68962977777777779</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+        <v>0.6896297777777778</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
         <v>3000006071745</v>
       </c>
       <c r="B79">
@@ -2266,11 +2192,11 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.67825344444444446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+        <v>0.6782534444444445</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
         <v>3000006071745</v>
       </c>
       <c r="B80">
@@ -2289,11 +2215,11 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.68078055555555561</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+        <v>0.6807805555555556</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
         <v>3000006071745</v>
       </c>
       <c r="B81">
@@ -2312,11 +2238,11 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.66958844444444443</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+        <v>0.6695884444444444</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
         <v>3000006071745</v>
       </c>
       <c r="B82">
@@ -2335,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0.65873811111111114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+        <v>0.6587381111111111</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
         <v>3000006071745</v>
       </c>
       <c r="B83">
@@ -2358,11 +2284,11 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.64781444444444447</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+        <v>0.6478144444444445</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
         <v>3000006071745</v>
       </c>
       <c r="B84">
@@ -2384,8 +2310,8 @@
         <v>0.6362537777777777</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+    <row r="85">
+      <c r="A85">
         <v>3000006071745</v>
       </c>
       <c r="B85">
@@ -2404,11 +2330,11 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.62504844444444441</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+        <v>0.6250484444444444</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
         <v>3000006071745</v>
       </c>
       <c r="B86">
@@ -2427,11 +2353,11 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0.61363566666666669</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+        <v>0.6136356666666667</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
         <v>3000006071745</v>
       </c>
       <c r="B87">
@@ -2444,17 +2370,17 @@
         <v>90000</v>
       </c>
       <c r="E87">
-        <v>54217.279999999999</v>
+        <v>54217.28</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.60241422222222218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+        <v>0.6024142222222222</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
         <v>3000006071745</v>
       </c>
       <c r="B88">
@@ -2473,11 +2399,11 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.59756488888888892</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+        <v>0.5975648888888889</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
         <v>3000006071745</v>
       </c>
       <c r="B89">
@@ -2496,11 +2422,11 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.58540966666666661</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+        <v>0.5854096666666666</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
         <v>3000006071745</v>
       </c>
       <c r="B90">
@@ -2519,11 +2445,11 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.57309300000000007</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+        <v>0.5730930000000001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
         <v>3000006071745</v>
       </c>
       <c r="B91">
@@ -2542,11 +2468,11 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.56037766666666666</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+        <v>0.5603776666666667</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
         <v>3000006071745</v>
       </c>
       <c r="B92">
@@ -2568,8 +2494,8 @@
         <v>0.5629615555555556</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+    <row r="93">
+      <c r="A93">
         <v>3000006071745</v>
       </c>
       <c r="B93">
@@ -2582,17 +2508,17 @@
         <v>90000</v>
       </c>
       <c r="E93">
-        <v>49543.630000000012</v>
+        <v>49543.63</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.55048477777777782</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+        <v>0.5504847777777778</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
         <v>3000006071745</v>
       </c>
       <c r="B94">
@@ -2611,11 +2537,11 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.53758533333333336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+        <v>0.5375853333333334</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
         <v>3000006071745</v>
       </c>
       <c r="B95">
@@ -2634,11 +2560,11 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.52441533333333334</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+        <v>0.5244153333333333</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
         <v>3000006071745</v>
       </c>
       <c r="B96">
@@ -2657,11 +2583,11 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.51022422222222219</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+        <v>0.5102242222222222</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
         <v>3000006071745</v>
       </c>
       <c r="B97">
@@ -2674,17 +2600,17 @@
         <v>90000</v>
       </c>
       <c r="E97">
-        <v>44628.060000000012</v>
+        <v>44628.06</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.49586733333333338</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+        <v>0.4958673333333334</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
         <v>3000006071745</v>
       </c>
       <c r="B98">
@@ -2703,11 +2629,11 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.48124055555555562</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+        <v>0.4812405555555556</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
         <v>3000006071745</v>
       </c>
       <c r="B99">
@@ -2720,17 +2646,17 @@
         <v>90000</v>
       </c>
       <c r="E99">
-        <v>41926.380000000012</v>
+        <v>41926.38</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0.46584866666666669</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+        <v>0.4658486666666667</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
         <v>3000006071745</v>
       </c>
       <c r="B100">
@@ -2743,17 +2669,17 @@
         <v>90000</v>
       </c>
       <c r="E100">
-        <v>41162.839999999997</v>
+        <v>41162.84</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.45736488888888888</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+        <v>0.4573648888888889</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
         <v>3000006071745</v>
       </c>
       <c r="B101">
@@ -2772,11 +2698,11 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.44134988888888887</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+        <v>0.4413498888888889</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
         <v>3000006071745</v>
       </c>
       <c r="B102">
@@ -2789,17 +2715,17 @@
         <v>90000</v>
       </c>
       <c r="E102">
-        <v>38256.699999999997</v>
+        <v>38256.7</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.42507444444444442</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+        <v>0.4250744444444444</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
         <v>3000006071745</v>
       </c>
       <c r="B103">
@@ -2812,17 +2738,17 @@
         <v>90000</v>
       </c>
       <c r="E103">
-        <v>36761.800000000003</v>
+        <v>36761.8</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.40846444444444452</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+        <v>0.4084644444444445</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
         <v>3000006071745</v>
       </c>
       <c r="B104">
@@ -2841,11 +2767,11 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.40921866666666668</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+        <v>0.4092186666666667</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
         <v>3000006071745</v>
       </c>
       <c r="B105">
@@ -2864,11 +2790,11 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.39246022222222221</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+        <v>0.3924602222222222</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
         <v>3000006071745</v>
       </c>
       <c r="B106">
@@ -2881,7 +2807,7 @@
         <v>90000</v>
       </c>
       <c r="E106">
-        <v>33810.910000000003</v>
+        <v>33810.91</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2890,8 +2816,8 @@
         <v>0.3756767777777778</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+    <row r="107">
+      <c r="A107">
         <v>3000006071745</v>
       </c>
       <c r="B107">
@@ -2904,17 +2830,17 @@
         <v>90000</v>
       </c>
       <c r="E107">
-        <v>34118.160000000003</v>
+        <v>34118.16</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.37909066666666669</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+        <v>0.3790906666666667</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
         <v>3000006071745</v>
       </c>
       <c r="B108">
@@ -2933,11 +2859,11 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.38220644444444452</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+        <v>0.3822064444444445</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
         <v>3000006071745</v>
       </c>
       <c r="B109">
@@ -2956,11 +2882,11 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.38564833333333332</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+        <v>0.3856483333333333</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
         <v>3000006071745</v>
       </c>
       <c r="B110">
@@ -2982,8 +2908,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+    <row r="111">
+      <c r="A111">
         <v>3000006071745</v>
       </c>
       <c r="B111">
@@ -3002,11 +2928,11 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>3.3666333333333333E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+        <v>0.03366633333333333</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
         <v>3000006071745</v>
       </c>
       <c r="B112">
@@ -3025,11 +2951,11 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>3.4006666666666657E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+        <v>0.03400666666666666</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
         <v>3000006071745</v>
       </c>
       <c r="B113">
@@ -3048,11 +2974,11 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>3.4359111111111111E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+        <v>0.03435911111111111</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
         <v>3000006071745</v>
       </c>
       <c r="B114">
@@ -3071,11 +2997,11 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>3.4714555555555547E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+        <v>0.03471455555555555</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
         <v>3000006071745</v>
       </c>
       <c r="B115">
@@ -3094,11 +3020,11 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>3.5053444444444443E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+        <v>0.03505344444444444</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
         <v>3000006071745</v>
       </c>
       <c r="B116">
@@ -3117,11 +3043,11 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>5.4344444444444452E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+        <v>0.05434444444444445</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
         <v>3000006071745</v>
       </c>
       <c r="B117">
@@ -3134,17 +3060,17 @@
         <v>90000</v>
       </c>
       <c r="E117">
-        <v>4934.1000000000004</v>
+        <v>4934.099999999999</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>5.4823333333333328E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+        <v>0.05482333333333333</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
         <v>3000006071745</v>
       </c>
       <c r="B118">
@@ -3163,11 +3089,11 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>5.5306000000000001E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+        <v>0.055306</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
         <v>3000006071745</v>
       </c>
       <c r="B119">
@@ -3180,17 +3106,17 @@
         <v>90000</v>
       </c>
       <c r="E119">
-        <v>5021.3100000000004</v>
+        <v>5021.31</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>5.579233333333334E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+        <v>0.05579233333333334</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
         <v>3000006071745</v>
       </c>
       <c r="B120">
@@ -3203,17 +3129,17 @@
         <v>90000</v>
       </c>
       <c r="E120">
-        <v>5061.6900000000014</v>
+        <v>5061.690000000001</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>5.6241000000000013E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
+        <v>0.05624100000000001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
         <v>3000006071745</v>
       </c>
       <c r="B121">
@@ -3226,17 +3152,17 @@
         <v>90000</v>
       </c>
       <c r="E121">
-        <v>5106.1100000000006</v>
+        <v>5106.110000000001</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>5.6734555555555559E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
+        <v>0.05673455555555556</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
         <v>3000006071745</v>
       </c>
       <c r="B122">
@@ -3249,17 +3175,17 @@
         <v>90000</v>
       </c>
       <c r="E122">
-        <v>5149.6000000000004</v>
+        <v>5149.599999999999</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <v>5.721777777777777E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+        <v>0.05721777777777777</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
         <v>3000006071745</v>
       </c>
       <c r="B123">
@@ -3278,11 +3204,11 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>6.5294888888888888E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+        <v>0.06529488888888889</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
         <v>3000006071745</v>
       </c>
       <c r="B124">
@@ -3301,11 +3227,11 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>6.5841444444444439E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+        <v>0.06584144444444444</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
         <v>3000006071745</v>
       </c>
       <c r="B125">
@@ -3324,11 +3250,11 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>6.6408333333333333E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+        <v>0.06640833333333333</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
         <v>3000006071745</v>
       </c>
       <c r="B126">
@@ -3347,11 +3273,11 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>6.6979555555555556E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+        <v>0.06697955555555556</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
         <v>3000006071745</v>
       </c>
       <c r="B127">
@@ -3370,11 +3296,11 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>6.753855555555556E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+        <v>0.06753855555555556</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
         <v>3000006071745</v>
       </c>
       <c r="B128">
@@ -3393,11 +3319,11 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>8.8380444444444442E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+        <v>0.08838044444444444</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
         <v>3000006071745</v>
       </c>
       <c r="B129">
@@ -3416,11 +3342,11 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>8.9097777777777776E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+        <v>0.08909777777777778</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
         <v>3000006071745</v>
       </c>
       <c r="B130">
@@ -3439,11 +3365,11 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>8.9842444444444447E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+        <v>0.08984244444444445</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
         <v>3000006071745</v>
       </c>
       <c r="B131">
@@ -3462,11 +3388,11 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>1.7385555555555559E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+        <v>0.001738555555555555</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
         <v>3000006071745</v>
       </c>
       <c r="B132">
@@ -3479,17 +3405,17 @@
         <v>90000</v>
       </c>
       <c r="E132">
-        <v>163.30000000000001</v>
+        <v>163.3</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>1.814444444444444E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+        <v>0.001814444444444444</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
         <v>3000006071745</v>
       </c>
       <c r="B133">
@@ -3508,11 +3434,11 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>1.892E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+        <v>0.001892</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
         <v>3000006071745</v>
       </c>
       <c r="B134">
@@ -3531,11 +3457,11 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>1.969555555555556E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+        <v>0.001969555555555556</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
         <v>3000006071745</v>
       </c>
       <c r="B135">
@@ -3554,11 +3480,11 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>2.0481111111111108E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+        <v>0.002048111111111111</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
         <v>3000006071745</v>
       </c>
       <c r="B136">
@@ -3577,11 +3503,11 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <v>2.1268888888888891E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+        <v>0.002126888888888889</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
         <v>3000006071745</v>
       </c>
       <c r="B137">
@@ -3600,11 +3526,11 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>2.2063333333333331E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
+        <v>0.002206333333333333</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
         <v>3000006071745</v>
       </c>
       <c r="B138">
@@ -3623,11 +3549,11 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>2.285888888888889E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+        <v>0.002285888888888889</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
         <v>3000006071745</v>
       </c>
       <c r="B139">
